--- a/FalconDash/src/test/resources/validationdata/falconxsl.xlsx
+++ b/FalconDash/src/test/resources/validationdata/falconxsl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17985" windowHeight="6300" activeTab="1"/>
+    <workbookView windowWidth="24345" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:C30"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="31">
   <si>
     <t>deleteProjectApiTest</t>
   </si>
@@ -25,30 +24,60 @@
     <t>invalidLinkApiTest</t>
   </si>
   <si>
+    <t>UI WEB TEST RESULT</t>
+  </si>
+  <si>
     <t>0 Sec</t>
   </si>
   <si>
+    <t>WEB</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>downloadImageApiTest</t>
   </si>
   <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>18 minutes ago</t>
+  </si>
+  <si>
     <t>exportToExcelApiTest</t>
   </si>
   <si>
     <t>getDashboardApiTest</t>
   </si>
   <si>
+    <t>21 minutes ago</t>
+  </si>
+  <si>
     <t>1 Sec</t>
   </si>
   <si>
+    <t>CucumberDemo</t>
+  </si>
+  <si>
     <t>recentRunsApiTest</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>23 minutes ago</t>
+  </si>
+  <si>
     <t>reportViewApiTest</t>
   </si>
   <si>
@@ -58,13 +87,28 @@
     <t>2 Sec</t>
   </si>
   <si>
+    <t>25 minutes ago</t>
+  </si>
+  <si>
     <t>uploadTestngResultFileApiTest</t>
   </si>
   <si>
     <t>viewReportApiTest</t>
   </si>
   <si>
+    <t>30 minutes ago</t>
+  </si>
+  <si>
     <t>5 Sec</t>
+  </si>
+  <si>
+    <t>57 minutes ago</t>
+  </si>
+  <si>
+    <t>1 hour ago</t>
+  </si>
+  <si>
+    <t>3 hours ago</t>
   </si>
 </sst>
 </file>
@@ -74,8 +118,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,19 +130,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,52 +162,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +236,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -181,22 +254,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,27 +269,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,187 +283,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,29 +479,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,6 +497,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +535,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -515,27 +574,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,145 +588,157 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1003,20 +1059,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F12" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="67.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="40.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="109.285714285714" customWidth="1"/>
+    <col min="1" max="1" width="35.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="25.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="22.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="40.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,234 +1083,424 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="37" spans="4:4">
+      <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>3</v>
+    <row r="47" spans="4:4">
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1514,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/FalconDash/src/test/resources/validationdata/falconxsl.xlsx
+++ b/FalconDash/src/test/resources/validationdata/falconxsl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
   <si>
     <t>deleteProjectApiTest</t>
   </si>
@@ -27,12 +27,18 @@
     <t>UI WEB TEST RESULT</t>
   </si>
   <si>
+    <t>CheckPageLink</t>
+  </si>
+  <si>
     <t>0 Sec</t>
   </si>
   <si>
     <t>WEB</t>
   </si>
   <si>
+    <t>ExitFormPage</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -42,13 +48,25 @@
     <t>4</t>
   </si>
   <si>
+    <t>PoliciesPage</t>
+  </si>
+  <si>
     <t>downloadImageApiTest</t>
   </si>
   <si>
     <t>75%</t>
   </si>
   <si>
+    <t>employeesPage</t>
+  </si>
+  <si>
     <t>18 minutes ago</t>
+  </si>
+  <si>
+    <t>myInfoPage</t>
+  </si>
+  <si>
+    <t>onBoardingPage</t>
   </si>
   <si>
     <t>exportToExcelApiTest</t>
@@ -116,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -131,24 +149,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,6 +186,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -175,8 +194,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,87 +284,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -283,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,9 +497,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,24 +541,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,32 +561,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -574,153 +574,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,21 +1077,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F12" sqref="F11:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="35.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="25.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="22.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="40.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1086,132 +1105,150 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1219,95 +1256,95 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>2</v>
@@ -1315,92 +1352,92 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="4:4">
@@ -1410,22 +1447,22 @@
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="4:4">
@@ -1435,22 +1472,22 @@
     </row>
     <row r="37" spans="4:4">
       <c r="D37" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="4:4">
@@ -1460,22 +1497,22 @@
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="4:4">
@@ -1485,22 +1522,22 @@
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
